--- a/biology/Écologie/Forêts_décidues_sèches_tropicales_et_subtropicales/Forêts_décidues_sèches_tropicales_et_subtropicales.xlsx
+++ b/biology/Écologie/Forêts_décidues_sèches_tropicales_et_subtropicales/Forêts_décidues_sèches_tropicales_et_subtropicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_tropicales_et_subtropicales</t>
+          <t>Forêts_décidues_sèches_tropicales_et_subtropicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts décidues sèches tropicales et subtropicales ou forêts tropophiles forment l'un des quatorze grands biomes terrestres où la végétation de type caduc est omniprésente lors de la saison sèche[2].
-Ces forêts occupaient en 2009, 3 millions de km2[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts décidues sèches tropicales et subtropicales ou forêts tropophiles forment l'un des quatorze grands biomes terrestres où la végétation de type caduc est omniprésente lors de la saison sèche.
+Ces forêts occupaient en 2009, 3 millions de km2.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_tropicales_et_subtropicales</t>
+          <t>Forêts_décidues_sèches_tropicales_et_subtropicales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Écorégions
-On observe des forêts tropophiles dans les régions suivantes[2] :
+          <t>Écorégions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On observe des forêts tropophiles dans les régions suivantes :
 Dans l'écozone afrotropicale, les forêts sèches de Madagascar
 Dans l'écozone australasienne :
 En Indonésie septentrionale, les forêts sèches de Nusa Tenggara, îles de la petite Sonde)
@@ -539,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_tropicales_et_subtropicales</t>
+          <t>Forêts_décidues_sèches_tropicales_et_subtropicales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +574,9 @@
           <t>Climatologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt tropicale sèche est en général soumise à un climat intertropical à saisons alternées, c’est-à-dire avec une saison sèche et une saison des pluies.
 La saison sèche se situe en hiver dans l'hémisphère correspondant et peut durer de 4 à 9 mois.
@@ -573,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_tropicales_et_subtropicales</t>
+          <t>Forêts_décidues_sèches_tropicales_et_subtropicales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +610,9 @@
           <t>Disparition de la forêt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette forêt tropophile est l'un des biomes qui a le plus souffert de l'agriculture et donc de l'anthropisation.
 Elle peut fournir à l'Homme des terres agricoles ainsi que des ressources en bois facilement exploitables, ce qui conduit à la disparition de nombreuses surfaces arborées. La savane gagne parfois naturellement sur la forêt tropophile car cette dernière est très sensible au feu du fait de la sécheresse ambiante.
@@ -605,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%C3%A9cidues_s%C3%A8ches_tropicales_et_subtropicales</t>
+          <t>Forêts_décidues_sèches_tropicales_et_subtropicales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +644,9 @@
           <t>Végétation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de végétation comporte trois niveaux :
 Au ras du sol on retrouve des herbes (graminées).
